--- a/_resource/excel/D-掉落-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/D-掉落-玩家属性-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -280,14 +280,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否创建</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create(int)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落次数纪录</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -305,13 +297,29 @@
   </si>
   <si>
     <t>#dropclass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屏蔽创建</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -901,17 +909,18 @@
     <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
     <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
     <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="17.125" style="6" customWidth="1"/>
-    <col min="35" max="35" width="21.5" style="6" customWidth="1"/>
-    <col min="36" max="36" width="24.875" style="6" customWidth="1"/>
-    <col min="37" max="37" width="28.75" style="6" customWidth="1"/>
+    <col min="33" max="33" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.375" style="6" customWidth="1"/>
+    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
+    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
+    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
+    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -947,9 +956,10 @@
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
-      <c r="AK1" s="1"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -994,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>61</v>
@@ -1044,23 +1054,26 @@
       <c r="AF2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1169,11 +1182,14 @@
       <c r="AJ3" s="9">
         <v>3</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1220,7 +1236,7 @@
         <v>68</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>39</v>
@@ -1270,40 +1286,43 @@
       <c r="AF4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="10" t="s">
-        <v>0</v>
+      <c r="AG4" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="AH4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>56</v>
@@ -1312,7 +1331,7 @@
         <v>67</v>
       </c>
       <c r="P5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
@@ -1360,6 +1379,9 @@
         <v>0</v>
       </c>
       <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
         <v>0</v>
       </c>
     </row>

--- a/_resource/excel/D-掉落-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/D-掉落-玩家属性-(框架维护,请勿修改).xlsx
@@ -215,104 +215,106 @@
     <t>Relation(int)</t>
   </si>
   <si>
+    <t>Rank(int)</t>
+  </si>
+  <si>
+    <t>AddFunction(string)</t>
+  </si>
+  <si>
+    <t>UpdateFunction(string)</t>
+  </si>
+  <si>
+    <t>RemoveFunction(string)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>逻辑名称</t>
+  </si>
+  <si>
+    <t>主属性值名称</t>
+  </si>
+  <si>
+    <t>是否给客户端显示</t>
+  </si>
+  <si>
+    <t>Id(string)</t>
+  </si>
+  <si>
+    <t>LogicName(string)</t>
+  </si>
+  <si>
+    <t>基础属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>RunParam(string)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组集合最大容量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity(string)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落次数纪录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#dropclass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屏蔽创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Guild(int)</t>
-  </si>
-  <si>
-    <t>Rank(int)</t>
-  </si>
-  <si>
-    <t>AddFunction(string)</t>
-  </si>
-  <si>
-    <t>UpdateFunction(string)</t>
-  </si>
-  <si>
-    <t>RemoveFunction(string)</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>record</t>
-  </si>
-  <si>
-    <t>逻辑名称</t>
-  </si>
-  <si>
-    <t>主属性值名称</t>
-  </si>
-  <si>
-    <t>是否给客户端显示</t>
-  </si>
-  <si>
-    <t>Id(string)</t>
-  </si>
-  <si>
-    <t>LogicName(string)</t>
-  </si>
-  <si>
-    <t>Group(int)</t>
-  </si>
-  <si>
-    <t>基础属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic(int)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>RunParam(string)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组集合最大容量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capacity(string)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落次数纪录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyValue</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#dropclass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client(int)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield(int)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否屏蔽创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -878,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -920,7 +922,7 @@
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -968,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -983,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -998,16 +1000,16 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>12</v>
@@ -1040,7 +1042,7 @@
         <v>21</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>22</v>
@@ -1055,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>26</v>
@@ -1194,13 +1196,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>30</v>
@@ -1230,13 +1232,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>39</v>
@@ -1272,63 +1274,63 @@
         <v>49</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AD4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AG4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AK4" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="AL4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P5" s="5">
         <v>0</v>

--- a/_resource/excel/D-掉落-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/D-掉落-玩家属性-(框架维护,请勿修改).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -113,9 +113,6 @@
     <t>同步客户端</t>
   </si>
   <si>
-    <t>延迟同步客户端</t>
-  </si>
-  <si>
     <t>同步查询者</t>
   </si>
   <si>
@@ -315,6 +312,18 @@
   </si>
   <si>
     <t>Team(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟同步时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -878,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,25 +913,26 @@
     <col min="21" max="21" width="11" style="6" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="6" customWidth="1"/>
     <col min="23" max="23" width="15" style="6" customWidth="1"/>
-    <col min="24" max="24" width="11" style="6" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
-    <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.375" style="6" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
-    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
-    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
+    <col min="24" max="24" width="13.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="6" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.875" style="6" customWidth="1"/>
+    <col min="31" max="32" width="11.5" style="6" customWidth="1"/>
+    <col min="33" max="33" width="10.875" style="6" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.375" style="6" customWidth="1"/>
+    <col min="36" max="36" width="17.125" style="6" customWidth="1"/>
+    <col min="37" max="37" width="21.5" style="6" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -959,9 +969,10 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
       <c r="AK1" s="8"/>
-      <c r="AL1" s="1"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -970,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -985,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -1000,16 +1011,16 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>12</v>
@@ -1026,56 +1037,59 @@
       <c r="V2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>20</v>
+      <c r="AL2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1149,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="9">
         <v>1</v>
@@ -1158,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="9">
         <v>3</v>
@@ -1187,150 +1201,156 @@
       <c r="AK3" s="9">
         <v>3</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AG4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AL4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AM4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AL4" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P5" s="5">
         <v>0</v>
@@ -1384,6 +1404,9 @@
         <v>0</v>
       </c>
       <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5">
         <v>0</v>
       </c>
     </row>
